--- a/tests/testthat/test_data/6/twoPlatesExtraCol.xlsx
+++ b/tests/testthat/test_data/6/twoPlatesExtraCol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CBE1D5F-8056-7A4C-8E5E-411C79F482E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A0890-F40D-2F48-9CAD-D03FCDE0B1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="twoPlatesExtraCol" sheetId="1" r:id="rId1"/>
@@ -28,35 +28,35 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>partial</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>A01</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>A02</t>
   </si>
   <si>
-    <t>partial</t>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +187,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,8 +540,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,39 +927,39 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -967,25 +975,26 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
